--- a/output/fit_clients/fit_round_357.xlsx
+++ b/output/fit_clients/fit_round_357.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2179795367.648989</v>
+        <v>2002248200.364848</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1117563251382588</v>
+        <v>0.09274069347985012</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0331702184696385</v>
+        <v>0.04326410400347614</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1089897703.653332</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2122505760.741149</v>
+        <v>1672972128.62062</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1848396392994288</v>
+        <v>0.1630781734212166</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04590590172723737</v>
+        <v>0.03624520456253979</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1061252939.410787</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4446071256.521815</v>
+        <v>3613874659.471574</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1585844897911003</v>
+        <v>0.1322963703644489</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03654477577275005</v>
+        <v>0.03669423710501012</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>129</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2223035674.051555</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3992783828.432581</v>
+        <v>3121508894.703453</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07440353956688148</v>
+        <v>0.0860387211254782</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0330588181776996</v>
+        <v>0.03831878253526863</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>132</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1996391918.369416</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2868622449.351136</v>
+        <v>2848618008.413084</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1135794704552327</v>
+        <v>0.1419178387777133</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04416635160918773</v>
+        <v>0.04857847628277481</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>67</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1434311160.276387</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2862692240.3252</v>
+        <v>2217538901.716751</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09944465022780059</v>
+        <v>0.07918457865522996</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04563834570686456</v>
+        <v>0.04800232101199015</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>111</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1431346098.291008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3528924541.524974</v>
+        <v>3267647675.141998</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1601945569242194</v>
+        <v>0.1629260460677658</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02510677748671127</v>
+        <v>0.02251604165414103</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>114</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1764462382.357068</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1954107484.160874</v>
+        <v>1800770775.302183</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1464651587103934</v>
+        <v>0.1538418740922922</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02908871415994662</v>
+        <v>0.02603759695969413</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>977053775.0697644</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4878256146.855549</v>
+        <v>4637114093.746769</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1454851132217174</v>
+        <v>0.1388136849338243</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04168211144518989</v>
+        <v>0.04833710980305723</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>150</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2439128163.311648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3838522176.11838</v>
+        <v>2733312155.898873</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1853531096459272</v>
+        <v>0.1670384455302745</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03296571558328726</v>
+        <v>0.04723025211142436</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>147</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1919261089.526438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2557068293.978981</v>
+        <v>2497645637.209578</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1920785841150221</v>
+        <v>0.1250223248738639</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0421856530121994</v>
+        <v>0.04524529631893922</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>122</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1278534124.451178</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4427289342.385846</v>
+        <v>4476715504.340413</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07067481305338744</v>
+        <v>0.07443121703853829</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02698990070757873</v>
+        <v>0.03016951710991932</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>120</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2213644704.429917</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3297820894.4218</v>
+        <v>2847556621.579649</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1260690521975435</v>
+        <v>0.1195397528337045</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03392770369391714</v>
+        <v>0.0420246493902357</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1648910460.091948</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1475611351.183164</v>
+        <v>1227057014.583142</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0935324572088443</v>
+        <v>0.07477405929733449</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03730075818840785</v>
+        <v>0.04263994576052717</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>737805755.5801456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2028713230.081238</v>
+        <v>1964475547.287582</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1118218735724951</v>
+        <v>0.08593015983554193</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04176052787530198</v>
+        <v>0.03646021057754269</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>72</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1014356687.965317</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3435203826.184642</v>
+        <v>3293953167.626276</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1601285781577482</v>
+        <v>0.1487214719153812</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05126730867666362</v>
+        <v>0.03479365879898308</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>105</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1717601975.609874</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3644254518.891975</v>
+        <v>3074606715.329114</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1178331707561368</v>
+        <v>0.1312400408644233</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0288439315415055</v>
+        <v>0.03075477437745956</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>117</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1822127243.070048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1289434569.003164</v>
+        <v>934606870.5025221</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1819233832735436</v>
+        <v>0.183555728501679</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01783901064878897</v>
+        <v>0.02040184291882354</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>644717384.2024889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2001821156.168393</v>
+        <v>2298020520.277104</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1116107648195432</v>
+        <v>0.1039993064755574</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0307898110971485</v>
+        <v>0.02424825336899942</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1000910604.231661</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2554964571.098646</v>
+        <v>1903065059.885151</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0879192831995477</v>
+        <v>0.08454804265582123</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04337591646892974</v>
+        <v>0.04428376027308769</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1277482268.428088</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2546498077.009791</v>
+        <v>2514801099.689759</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09006507764114277</v>
+        <v>0.1251191206538603</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04717808762639725</v>
+        <v>0.03649573288426036</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>99</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1273249127.204052</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1511809011.895262</v>
+        <v>1291372938.940267</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1782232241750628</v>
+        <v>0.1700650394192851</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05264956940116449</v>
+        <v>0.04599640655202781</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>755904489.9246051</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3587475622.538267</v>
+        <v>2957586966.055106</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1440726135169322</v>
+        <v>0.1155313776283518</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03405445586911725</v>
+        <v>0.02340458677501456</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>104</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1793737807.009934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1339228188.91141</v>
+        <v>1276808664.4857</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09756918981753218</v>
+        <v>0.1165095592177674</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02848806382725172</v>
+        <v>0.02196132366007514</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>669614080.4215622</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1216855591.871325</v>
+        <v>1355831626.404855</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08701277341873047</v>
+        <v>0.08955222430233305</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03234604725520754</v>
+        <v>0.02853965005354134</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>608427821.0879886</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3987365695.046475</v>
+        <v>3964660070.842193</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1227173983678664</v>
+        <v>0.1172490804483785</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02397700157590043</v>
+        <v>0.02165011802883792</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1993682858.290008</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2643402664.643353</v>
+        <v>2873263688.607171</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1439555060985049</v>
+        <v>0.1407443594759364</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03943107603924096</v>
+        <v>0.03961542093452919</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1321701312.584414</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5667703166.599812</v>
+        <v>5934925777.609689</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1087143626140013</v>
+        <v>0.12522992201223</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04234957444145967</v>
+        <v>0.03417327976156364</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>157</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2833851484.586718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1574785190.063735</v>
+        <v>1629353774.901867</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1268795628107232</v>
+        <v>0.1364830945504565</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03606584698233491</v>
+        <v>0.02851871932772703</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>787392584.056268</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1089975469.346726</v>
+        <v>980609508.7351819</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09776639025398591</v>
+        <v>0.08691687239920122</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04873895476225693</v>
+        <v>0.03435205767881536</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>544987712.0516083</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1273925766.043436</v>
+        <v>1153675827.84568</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09984242827603534</v>
+        <v>0.1060445795910763</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02746198768749593</v>
+        <v>0.03465807350436584</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>636962904.5649729</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2404430134.491662</v>
+        <v>2791580670.619267</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1823034608896314</v>
+        <v>0.191089285456791</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03998870022909387</v>
+        <v>0.0520292052924725</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>107</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1202215113.588237</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1057544385.740056</v>
+        <v>1411225204.121302</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08331035488863105</v>
+        <v>0.1050652329669911</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02478347684112578</v>
+        <v>0.01825884119588462</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>528772221.2978731</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1123042558.835098</v>
+        <v>965759448.1207693</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0871712563028073</v>
+        <v>0.0817637321029603</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04096631231763315</v>
+        <v>0.04131623228114481</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>561521271.0419272</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3233322750.282911</v>
+        <v>2967112770.106788</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1314244143791068</v>
+        <v>0.1478372143781254</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0287062181707388</v>
+        <v>0.02283581171169205</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>91</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1616661338.389284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2904909980.127844</v>
+        <v>1846657889.952496</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1009901832737534</v>
+        <v>0.1050169759981822</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03242540253474203</v>
+        <v>0.03704552813699098</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>93</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1452455141.835222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1367718073.219757</v>
+        <v>2167032070.603194</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09446601516599186</v>
+        <v>0.1169977380067908</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03139864630119112</v>
+        <v>0.02895832960430929</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>683859104.5615591</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1632404800.004301</v>
+        <v>2110757871.803101</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1581208852257453</v>
+        <v>0.1177542507410297</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02491168940745676</v>
+        <v>0.02174886649898821</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>816202450.33535</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1728930513.679108</v>
+        <v>1329907867.352315</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1232392220813425</v>
+        <v>0.1240553507632172</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05250744207775215</v>
+        <v>0.05403768860385309</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>864465165.7256426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2926035135.347747</v>
+        <v>2924494526.974402</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1117417343069837</v>
+        <v>0.1567400186086814</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03689398587746037</v>
+        <v>0.04047682304862584</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>91</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1463017551.224663</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3147354856.244387</v>
+        <v>4223800180.708467</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08149413480117799</v>
+        <v>0.1004533630123459</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03338529527168927</v>
+        <v>0.03316299833811193</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1573677398.707511</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2376807765.501439</v>
+        <v>2466203879.480474</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1923252310727422</v>
+        <v>0.1249940901484654</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01986737357374002</v>
+        <v>0.01989447314366541</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>127</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1188403943.795041</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1539441956.088817</v>
+        <v>2335598117.047654</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07606350323343386</v>
+        <v>0.09431385213140007</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02460188889074961</v>
+        <v>0.03618877186661554</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>769720992.5008352</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2157232624.156695</v>
+        <v>2013927033.197417</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1730502018564491</v>
+        <v>0.1945929572206757</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0496528036367726</v>
+        <v>0.04261471623118163</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1078616318.78803</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5676854766.74239</v>
+        <v>4194416897.755894</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1328589111063848</v>
+        <v>0.1535179794846577</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05945163455358268</v>
+        <v>0.04685216212041998</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>127</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2838427448.959081</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4708827349.043399</v>
+        <v>4575009482.926397</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1366894013585194</v>
+        <v>0.1528664757675219</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03995001785657463</v>
+        <v>0.05866598526297508</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>95</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2354413713.86571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3152356230.955138</v>
+        <v>2937461170.427862</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08712149100739495</v>
+        <v>0.09057511583505148</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02523756621323986</v>
+        <v>0.03768614756559049</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>117</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1576178199.150415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1966580512.764697</v>
+        <v>1369332436.565975</v>
       </c>
       <c r="F49" t="n">
-        <v>0.154997889159556</v>
+        <v>0.1731486807261506</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04107745608081968</v>
+        <v>0.04070637076278965</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>983290215.8654381</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3267143400.293665</v>
+        <v>2691955694.566294</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1082408257069765</v>
+        <v>0.1227702370073356</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03258983991984828</v>
+        <v>0.03652327715801985</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>122</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1633571740.982976</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1405935705.219786</v>
+        <v>1296084405.158251</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1903392652493451</v>
+        <v>0.1196121014191267</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0475829099899331</v>
+        <v>0.04929716009571812</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>702967870.7864696</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3645242587.051595</v>
+        <v>3707301482.071314</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1388616537246028</v>
+        <v>0.1258122908425423</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04396017430369321</v>
+        <v>0.05451302428661028</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>147</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1822621370.89133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3393693921.246871</v>
+        <v>2605814841.250258</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1978191522340799</v>
+        <v>0.1290216825633616</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02364204595446198</v>
+        <v>0.02709386905603222</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>104</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1696846965.915432</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4737811824.882781</v>
+        <v>3903854996.269364</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1327219332116791</v>
+        <v>0.1124003318943319</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0525256102571847</v>
+        <v>0.04300091507127993</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>116</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2368906034.471713</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3443380004.148594</v>
+        <v>3930359914.063005</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1876963371169438</v>
+        <v>0.2014600982434342</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03221229429076872</v>
+        <v>0.03113067043030432</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1721689952.409451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1879105329.104641</v>
+        <v>1375487484.488432</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1326599694618947</v>
+        <v>0.1509593703191512</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05728974327728044</v>
+        <v>0.03505087224932391</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>939552650.6640471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2830275307.667106</v>
+        <v>3336062270.159732</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1307474642870421</v>
+        <v>0.1711636041422139</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01681109811893652</v>
+        <v>0.01981112438680453</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>114</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1415137643.995786</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1326180893.509861</v>
+        <v>1555050480.529</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1494410617810497</v>
+        <v>0.1327575278436273</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03405956341011569</v>
+        <v>0.02981627763888688</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>663090493.7627205</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3259125953.709294</v>
+        <v>4415197387.013414</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09249501289734821</v>
+        <v>0.08158625212747353</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04959819096795626</v>
+        <v>0.04193130396569185</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1629562988.547387</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3006305656.394628</v>
+        <v>2337943660.036308</v>
       </c>
       <c r="F60" t="n">
-        <v>0.176768231737336</v>
+        <v>0.1915069444519426</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02572746586125329</v>
+        <v>0.02725530846710382</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>111</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1503152899.217311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2281825794.415921</v>
+        <v>3288741020.913278</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1155956079445106</v>
+        <v>0.1132282454635841</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03172093741290443</v>
+        <v>0.02986407538060255</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>123</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1140912945.416214</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1504574387.061273</v>
+        <v>1597822214.243953</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1572429977099088</v>
+        <v>0.1397113456786396</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04384427432922624</v>
+        <v>0.048901993886124</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>752287177.2539064</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4930149141.92782</v>
+        <v>3913767229.963505</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1021410825408946</v>
+        <v>0.08398206299036012</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0364698471540067</v>
+        <v>0.03558052074414692</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2465074591.879961</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4741357811.50744</v>
+        <v>4177916569.205045</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1454933453525888</v>
+        <v>0.1838323299752847</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03548750530402322</v>
+        <v>0.02693914267544635</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>111</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2370678993.770977</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3861943949.476804</v>
+        <v>4647240670.839316</v>
       </c>
       <c r="F65" t="n">
-        <v>0.166329673116446</v>
+        <v>0.1692821668068734</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0201136479468708</v>
+        <v>0.0233984078087673</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>128</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1930972001.575314</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4200794785.173488</v>
+        <v>4604480589.706444</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1081118897264643</v>
+        <v>0.1189498629031866</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04420760046348019</v>
+        <v>0.0466660354094803</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>104</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2100397376.9388</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2268715475.14051</v>
+        <v>3264842439.591099</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07626721920515288</v>
+        <v>0.09643783724496521</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04859388648279638</v>
+        <v>0.03318500090662488</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>114</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1134357817.780873</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5155576213.809876</v>
+        <v>5277163672.735535</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1595695366819894</v>
+        <v>0.1414107605842372</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04948495099054933</v>
+        <v>0.03820110004528553</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2577788172.723279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1653402730.967051</v>
+        <v>2402542502.791319</v>
       </c>
       <c r="F69" t="n">
-        <v>0.116705908364758</v>
+        <v>0.1460938089251324</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04011508032094686</v>
+        <v>0.04668607791804602</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>826701325.6221728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2840852783.001793</v>
+        <v>3040335393.054095</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08309268556684073</v>
+        <v>0.07092513060201358</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03267676279929074</v>
+        <v>0.04136734150984033</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>102</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1420426358.121784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4093744727.524063</v>
+        <v>5271524317.881269</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1507008114173263</v>
+        <v>0.1522935943069812</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03358670648839651</v>
+        <v>0.02717418428837865</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>130</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2046872401.796725</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1660117222.861805</v>
+        <v>1572044321.946535</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06671108439200173</v>
+        <v>0.07644060931781223</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04196669279744831</v>
+        <v>0.05333856790826135</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>830058612.5980306</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3127175040.660872</v>
+        <v>3228671504.867205</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09518263534125401</v>
+        <v>0.1022442936462045</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04045533005222552</v>
+        <v>0.05042536554683909</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>136</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1563587504.683747</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2932008193.170192</v>
+        <v>2757898002.227476</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1202342097350579</v>
+        <v>0.1722395926136641</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02339613843471441</v>
+        <v>0.03180065680422905</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>122</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1466004167.893674</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1596160253.287153</v>
+        <v>1929851854.076883</v>
       </c>
       <c r="F75" t="n">
-        <v>0.100777179678538</v>
+        <v>0.1239567117683864</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0350799696283246</v>
+        <v>0.03285156591582864</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>798080128.6466939</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4333560697.708056</v>
+        <v>4034878509.955005</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07821687665171492</v>
+        <v>0.09748626919837976</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03257020076211906</v>
+        <v>0.03348412182119678</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>84</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2166780347.581795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1445887983.588745</v>
+        <v>1693920655.14489</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1446066564948691</v>
+        <v>0.1205510512742257</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0300167346475901</v>
+        <v>0.01954910729822146</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>722943971.4911833</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3449638441.559363</v>
+        <v>3652998711.860359</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09902898733946043</v>
+        <v>0.1082470765465861</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05024564279515595</v>
+        <v>0.04682746557485152</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>124</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1724819225.903978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1445334012.837456</v>
+        <v>1675273792.975798</v>
       </c>
       <c r="F79" t="n">
-        <v>0.142040185519383</v>
+        <v>0.1575776819504577</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03767889698535536</v>
+        <v>0.03083883052172723</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>722667031.0919973</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4819480388.404812</v>
+        <v>5148544110.093</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1063962094160313</v>
+        <v>0.1052835837021359</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03811575148553621</v>
+        <v>0.03052349852407289</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2409740234.454936</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3607086859.771236</v>
+        <v>5095042176.370315</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1159323650978759</v>
+        <v>0.08287071572226197</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02371610834584983</v>
+        <v>0.02119007363057382</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1803543378.499903</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3542890058.981961</v>
+        <v>5136971943.339691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1877849642996343</v>
+        <v>0.1986366401026633</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02168754690191639</v>
+        <v>0.0195484972732986</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>126</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1771445094.77937</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2246683925.982216</v>
+        <v>1591112531.700152</v>
       </c>
       <c r="F83" t="n">
-        <v>0.112332249583338</v>
+        <v>0.1503289726034392</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03251135046764879</v>
+        <v>0.04513721188998799</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1123341979.032766</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1845715339.353229</v>
+        <v>1878427151.920603</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09638675059654404</v>
+        <v>0.09418038596949259</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03178244114513926</v>
+        <v>0.04435998264829769</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>922857697.334931</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2538143231.192509</v>
+        <v>2681288561.3413</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1748344049202941</v>
+        <v>0.1354138942894089</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0389472386175291</v>
+        <v>0.03771268101307901</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>135</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1269071624.747798</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1752423187.409214</v>
+        <v>2732185609.841735</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1555163555268383</v>
+        <v>0.1350002449685068</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0194390997297468</v>
+        <v>0.01983998244630842</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>47</v>
-      </c>
-      <c r="J86" t="n">
-        <v>876211586.8978244</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>957912882.6491882</v>
+        <v>1364082550.11615</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1481034015325299</v>
+        <v>0.1199376093499023</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04077659929535566</v>
+        <v>0.04426636585254181</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>478956434.8917904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3137304085.143564</v>
+        <v>3385629887.014596</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1246628625381069</v>
+        <v>0.1459568029633593</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03682115224012376</v>
+        <v>0.02862613861197277</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>142</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1568652086.591148</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2306908975.328151</v>
+        <v>3381001334.211156</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09938359322811208</v>
+        <v>0.1513390763103479</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03395033302543309</v>
+        <v>0.02545708366721598</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>120</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1153454576.602361</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1476400799.355194</v>
+        <v>2110045104.218657</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08437416623501069</v>
+        <v>0.1181624237536824</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05184390878317842</v>
+        <v>0.04876516799471313</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>738200374.1296468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1499733303.223154</v>
+        <v>2022893919.863267</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1708769473049229</v>
+        <v>0.1904027208334245</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05001044335354765</v>
+        <v>0.04523006883044844</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>749866690.5957062</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2739562318.42502</v>
+        <v>2177400747.829158</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06999229116420409</v>
+        <v>0.0771756669221187</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0430371393920868</v>
+        <v>0.03080100351840901</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>98</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1369781161.313503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4475123652.872728</v>
+        <v>4491205642.593019</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1235463636475821</v>
+        <v>0.1414098116538345</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05239722846429468</v>
+        <v>0.04167802006617319</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>109</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2237561796.321392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2453436554.216408</v>
+        <v>1763769480.19331</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1433130894184549</v>
+        <v>0.1443548478223072</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03240708221957908</v>
+        <v>0.03457052296460629</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1226718334.498807</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2472769490.062246</v>
+        <v>2594670397.108799</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1379734966585315</v>
+        <v>0.09351241395364189</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04939730366979145</v>
+        <v>0.03471806353725376</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1236384783.144906</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2306435247.222085</v>
+        <v>1839619649.646921</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1406943614742814</v>
+        <v>0.1164836184015428</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04623260884598086</v>
+        <v>0.03946021555452019</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1153217577.889878</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4374062075.433527</v>
+        <v>4097868353.295608</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1269912759317083</v>
+        <v>0.1410302068928158</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02368525033555958</v>
+        <v>0.02335013662736731</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>114</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2187031124.184447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3927224275.860638</v>
+        <v>2772643223.023793</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1147456402960731</v>
+        <v>0.08614703946839967</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02696319037616151</v>
+        <v>0.01998143306466232</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1963612185.495947</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3416888026.506749</v>
+        <v>3163307461.657341</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1248967518204049</v>
+        <v>0.1315382340948152</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02795098381901375</v>
+        <v>0.02782127018039166</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>111</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1708444029.422089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4071837382.569867</v>
+        <v>4539062639.833711</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1193631363279411</v>
+        <v>0.155583028598981</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02569036717954923</v>
+        <v>0.02352132038029529</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>110</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2035918767.6901</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2989699670.723774</v>
+        <v>2378440471.475832</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1539414849300164</v>
+        <v>0.1411002995116605</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03677661503736897</v>
+        <v>0.03959210977491538</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>145</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1494849923.109394</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_357.xlsx
+++ b/output/fit_clients/fit_round_357.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2002248200.364848</v>
+        <v>1746613655.542626</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09274069347985012</v>
+        <v>0.0964870451407279</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04326410400347614</v>
+        <v>0.03697008224620091</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1672972128.62062</v>
+        <v>1947453760.416829</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1630781734212166</v>
+        <v>0.1357924469068788</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03624520456253979</v>
+        <v>0.05028393246954654</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3613874659.471574</v>
+        <v>4125956422.91011</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1322963703644489</v>
+        <v>0.1249973926861754</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03669423710501012</v>
+        <v>0.03093119867141672</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3121508894.703453</v>
+        <v>4225075054.617146</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0860387211254782</v>
+        <v>0.09819041401638445</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03831878253526863</v>
+        <v>0.04565398389406412</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2848618008.413084</v>
+        <v>2463751183.489649</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1419178387777133</v>
+        <v>0.1034833951821051</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04857847628277481</v>
+        <v>0.04079445418897404</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2217538901.716751</v>
+        <v>2013256822.742709</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07918457865522996</v>
+        <v>0.09254478808847216</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04800232101199015</v>
+        <v>0.03207082011544213</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3267647675.141998</v>
+        <v>3667437978.609419</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1629260460677658</v>
+        <v>0.1523041967450404</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02251604165414103</v>
+        <v>0.02685297706554672</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1800770775.302183</v>
+        <v>1829309945.875913</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1538418740922922</v>
+        <v>0.1894520407838834</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02603759695969413</v>
+        <v>0.03617604461011196</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4637114093.746769</v>
+        <v>4201547777.030945</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1388136849338243</v>
+        <v>0.2123352296749599</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04833710980305723</v>
+        <v>0.04102927514597048</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2733312155.898873</v>
+        <v>2861801510.231393</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1670384455302745</v>
+        <v>0.120179535839654</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04723025211142436</v>
+        <v>0.04767534384384824</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2497645637.209578</v>
+        <v>2957966293.284969</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1250223248738639</v>
+        <v>0.1795084949259387</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04524529631893922</v>
+        <v>0.05282414303408927</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4476715504.340413</v>
+        <v>3610944671.493536</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07443121703853829</v>
+        <v>0.07638868103291581</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03016951710991932</v>
+        <v>0.03124349698617968</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2847556621.579649</v>
+        <v>3651554163.257342</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1195397528337045</v>
+        <v>0.1631897775004992</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0420246493902357</v>
+        <v>0.03788911433099176</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1227057014.583142</v>
+        <v>1590277637.111837</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07477405929733449</v>
+        <v>0.09371971207742837</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04263994576052717</v>
+        <v>0.04887799284539867</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1964475547.287582</v>
+        <v>1844937548.358802</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08593015983554193</v>
+        <v>0.0704488132331455</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03646021057754269</v>
+        <v>0.0412634707361064</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3293953167.626276</v>
+        <v>3748796299.740819</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1487214719153812</v>
+        <v>0.1344193413887893</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03479365879898308</v>
+        <v>0.0439810900675277</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3074606715.329114</v>
+        <v>2720042368.176819</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1312400408644233</v>
+        <v>0.1564534364537107</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03075477437745956</v>
+        <v>0.03398847352929828</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>934606870.5025221</v>
+        <v>1210991389.333707</v>
       </c>
       <c r="F19" t="n">
-        <v>0.183555728501679</v>
+        <v>0.1190346801709765</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02040184291882354</v>
+        <v>0.0242083920720783</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2298020520.277104</v>
+        <v>1813237070.907785</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1039993064755574</v>
+        <v>0.1330061006302589</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02424825336899942</v>
+        <v>0.02869890863968502</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1903065059.885151</v>
+        <v>2056358369.304343</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08454804265582123</v>
+        <v>0.08469747391204077</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04428376027308769</v>
+        <v>0.02988347854081309</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2514801099.689759</v>
+        <v>2514259038.693737</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1251191206538603</v>
+        <v>0.1240491341199217</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03649573288426036</v>
+        <v>0.039409456203058</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1291372938.940267</v>
+        <v>965217554.1237186</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1700650394192851</v>
+        <v>0.1445880909398931</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04599640655202781</v>
+        <v>0.03870981897593104</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2957586966.055106</v>
+        <v>3259535379.411118</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1155313776283518</v>
+        <v>0.1106733114630249</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02340458677501456</v>
+        <v>0.03710371567717351</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1276808664.4857</v>
+        <v>1274810947.857913</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1165095592177674</v>
+        <v>0.09376242867253007</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02196132366007514</v>
+        <v>0.03058741011046235</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1355831626.404855</v>
+        <v>1099483258.873662</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08955222430233305</v>
+        <v>0.1247046288182063</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02853965005354134</v>
+        <v>0.02614731988310577</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3964660070.842193</v>
+        <v>2877128596.737205</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1172490804483785</v>
+        <v>0.1147859722248611</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02165011802883792</v>
+        <v>0.01720682660905549</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2873263688.607171</v>
+        <v>3003650888.070197</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1407443594759364</v>
+        <v>0.1017004542208471</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03961542093452919</v>
+        <v>0.0342305096545365</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5934925777.609689</v>
+        <v>4591887990.643957</v>
       </c>
       <c r="F29" t="n">
-        <v>0.12522992201223</v>
+        <v>0.09253358502661956</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03417327976156364</v>
+        <v>0.04117941135428938</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1629353774.901867</v>
+        <v>1710620512.737386</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1364830945504565</v>
+        <v>0.08468140720778775</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02851871932772703</v>
+        <v>0.03181660057027943</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>980609508.7351819</v>
+        <v>1033080734.135979</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08691687239920122</v>
+        <v>0.07402920693159146</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03435205767881536</v>
+        <v>0.04115221161265855</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1153675827.84568</v>
+        <v>1776528392.334358</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1060445795910763</v>
+        <v>0.09368413597204517</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03465807350436584</v>
+        <v>0.03389805889524626</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2791580670.619267</v>
+        <v>2766705658.556016</v>
       </c>
       <c r="F33" t="n">
-        <v>0.191089285456791</v>
+        <v>0.1538773249768926</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0520292052924725</v>
+        <v>0.0427732689937806</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1411225204.121302</v>
+        <v>1389559191.483743</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1050652329669911</v>
+        <v>0.08946998746280534</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01825884119588462</v>
+        <v>0.01905853296036145</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>965759448.1207693</v>
+        <v>1285368572.654896</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0817637321029603</v>
+        <v>0.07628231896084121</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04131623228114481</v>
+        <v>0.03912361211303721</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2967112770.106788</v>
+        <v>2542959570.219952</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1478372143781254</v>
+        <v>0.166287653435687</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02283581171169205</v>
+        <v>0.02334765313485923</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1846657889.952496</v>
+        <v>1776419187.455949</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1050169759981822</v>
+        <v>0.08269580436531232</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03704552813699098</v>
+        <v>0.03968137080088858</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2167032070.603194</v>
+        <v>2019412451.546297</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1169977380067908</v>
+        <v>0.09117815171353384</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02895832960430929</v>
+        <v>0.02916993808956822</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2110757871.803101</v>
+        <v>1925194479.752818</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1177542507410297</v>
+        <v>0.1858387178968298</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02174886649898821</v>
+        <v>0.03279687525783822</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1329907867.352315</v>
+        <v>1555022727.319075</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1240553507632172</v>
+        <v>0.1392464585857371</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05403768860385309</v>
+        <v>0.04160652645020943</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2924494526.974402</v>
+        <v>2383990302.358088</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1567400186086814</v>
+        <v>0.1078351694213217</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04047682304862584</v>
+        <v>0.03671276964540469</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4223800180.708467</v>
+        <v>3526121561.76087</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1004533630123459</v>
+        <v>0.1098250499745706</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03316299833811193</v>
+        <v>0.03137905260451673</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2466203879.480474</v>
+        <v>2315721095.292035</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1249940901484654</v>
+        <v>0.2041072924033707</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01989447314366541</v>
+        <v>0.02173798661131874</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2335598117.047654</v>
+        <v>1503590162.787283</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09431385213140007</v>
+        <v>0.07061480767152216</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03618877186661554</v>
+        <v>0.02445189564453282</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2013927033.197417</v>
+        <v>2434115249.06636</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1945929572206757</v>
+        <v>0.1619001686404037</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04261471623118163</v>
+        <v>0.03744340766032801</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4194416897.755894</v>
+        <v>4788861120.393801</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1535179794846577</v>
+        <v>0.1616769628416404</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04685216212041998</v>
+        <v>0.04915107477301003</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4575009482.926397</v>
+        <v>3858420090.913754</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1528664757675219</v>
+        <v>0.2018809859642425</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05866598526297508</v>
+        <v>0.05835229536930781</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2937461170.427862</v>
+        <v>3262941233.091258</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09057511583505148</v>
+        <v>0.09724067797817873</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03768614756559049</v>
+        <v>0.0266098840234153</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1369332436.565975</v>
+        <v>1248364168.218474</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1731486807261506</v>
+        <v>0.158285864721591</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04070637076278965</v>
+        <v>0.03398072461464029</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2691955694.566294</v>
+        <v>3318702187.777586</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1227702370073356</v>
+        <v>0.1541233388011965</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03652327715801985</v>
+        <v>0.04146223086707078</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1296084405.158251</v>
+        <v>1243179864.653901</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1196121014191267</v>
+        <v>0.1575024290065678</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04929716009571812</v>
+        <v>0.0379478021710597</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3707301482.071314</v>
+        <v>4268545153.881006</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1258122908425423</v>
+        <v>0.1089738156623854</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05451302428661028</v>
+        <v>0.05478853698617581</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2605814841.250258</v>
+        <v>3255105008.852811</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1290216825633616</v>
+        <v>0.1783154283538428</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02709386905603222</v>
+        <v>0.02702727335110986</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3903854996.269364</v>
+        <v>4611554917.268315</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1124003318943319</v>
+        <v>0.1417082609666157</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04300091507127993</v>
+        <v>0.04047678844862766</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3930359914.063005</v>
+        <v>4282756533.450991</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2014600982434342</v>
+        <v>0.1668367741218259</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03113067043030432</v>
+        <v>0.02109269871187133</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1375487484.488432</v>
+        <v>1839282607.626023</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1509593703191512</v>
+        <v>0.1112110336989347</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03505087224932391</v>
+        <v>0.05516917298870269</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3336062270.159732</v>
+        <v>3786812504.667868</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1711636041422139</v>
+        <v>0.1306702738008093</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01981112438680453</v>
+        <v>0.02558873298156391</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1555050480.529</v>
+        <v>1853100499.922241</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1327575278436273</v>
+        <v>0.181196441054486</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02981627763888688</v>
+        <v>0.02556223626367532</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4415197387.013414</v>
+        <v>5245630880.770029</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08158625212747353</v>
+        <v>0.07868105490440171</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04193130396569185</v>
+        <v>0.03804120287449794</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2337943660.036308</v>
+        <v>3747828921.005753</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1915069444519426</v>
+        <v>0.1826895595067602</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02725530846710382</v>
+        <v>0.03245077176218802</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3288741020.913278</v>
+        <v>3334611701.07704</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1132282454635841</v>
+        <v>0.1344273330548139</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02986407538060255</v>
+        <v>0.0267462154982284</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1597822214.243953</v>
+        <v>2071553036.923837</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1397113456786396</v>
+        <v>0.1275869502094831</v>
       </c>
       <c r="G62" t="n">
-        <v>0.048901993886124</v>
+        <v>0.03740054993383125</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3913767229.963505</v>
+        <v>4416489777.11146</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08398206299036012</v>
+        <v>0.06828046436665595</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03558052074414692</v>
+        <v>0.03138426428252991</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4177916569.205045</v>
+        <v>4651358073.559114</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1838323299752847</v>
+        <v>0.1248581953368138</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02693914267544635</v>
+        <v>0.03409091811156421</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4647240670.839316</v>
+        <v>3895110639.407129</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1692821668068734</v>
+        <v>0.1130637775036869</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0233984078087673</v>
+        <v>0.02432412676614777</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4604480589.706444</v>
+        <v>4223471992.581473</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1189498629031866</v>
+        <v>0.1306226097509475</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0466660354094803</v>
+        <v>0.04962701206619703</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3264842439.591099</v>
+        <v>2899472748.838938</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09643783724496521</v>
+        <v>0.08205867044390003</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03318500090662488</v>
+        <v>0.03971131282236928</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5277163672.735535</v>
+        <v>6081220743.322167</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1414107605842372</v>
+        <v>0.1109492620236128</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03820110004528553</v>
+        <v>0.03327986257925793</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2402542502.791319</v>
+        <v>2314344531.257843</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1460938089251324</v>
+        <v>0.1406693704798798</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04668607791804602</v>
+        <v>0.04687743795536568</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3040335393.054095</v>
+        <v>3683757661.510719</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07092513060201358</v>
+        <v>0.09829665870785974</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04136734150984033</v>
+        <v>0.03906448561037388</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5271524317.881269</v>
+        <v>3569272045.554225</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1522935943069812</v>
+        <v>0.1839672819665736</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02717418428837865</v>
+        <v>0.02940831976064814</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1572044321.946535</v>
+        <v>2169092704.431903</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07644060931781223</v>
+        <v>0.09946652503138817</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05333856790826135</v>
+        <v>0.03235996960713142</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3228671504.867205</v>
+        <v>3171220123.378461</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1022442936462045</v>
+        <v>0.09870541250385152</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05042536554683909</v>
+        <v>0.03692582520193943</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2757898002.227476</v>
+        <v>3245279890.376187</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1722395926136641</v>
+        <v>0.1359436660661755</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03180065680422905</v>
+        <v>0.02536657832390933</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1929851854.076883</v>
+        <v>2263086645.003937</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1239567117683864</v>
+        <v>0.1221589983737535</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03285156591582864</v>
+        <v>0.03764758591456256</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4034878509.955005</v>
+        <v>4005274360.054132</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09748626919837976</v>
+        <v>0.09981940370185816</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03348412182119678</v>
+        <v>0.03275620098236404</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1693920655.14489</v>
+        <v>1755318220.191964</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1205510512742257</v>
+        <v>0.1386688204332982</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01954910729822146</v>
+        <v>0.0266859667857414</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3652998711.860359</v>
+        <v>4003009080.323907</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1082470765465861</v>
+        <v>0.1244653400120615</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04682746557485152</v>
+        <v>0.03505100287075524</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1675273792.975798</v>
+        <v>1831667675.904276</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1575776819504577</v>
+        <v>0.1539140828602576</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03083883052172723</v>
+        <v>0.02859556509001614</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5148544110.093</v>
+        <v>3866177087.393443</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1052835837021359</v>
+        <v>0.1101199704619239</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03052349852407289</v>
+        <v>0.02817006838301501</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5095042176.370315</v>
+        <v>3431076156.305848</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08287071572226197</v>
+        <v>0.1041863955365309</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02119007363057382</v>
+        <v>0.02299089490553841</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5136971943.339691</v>
+        <v>5168519669.750286</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1986366401026633</v>
+        <v>0.1870531485870003</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0195484972732986</v>
+        <v>0.02127898211396602</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1591112531.700152</v>
+        <v>2127188688.195902</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1503289726034392</v>
+        <v>0.1174892753384725</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04513721188998799</v>
+        <v>0.0371035618179875</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1878427151.920603</v>
+        <v>2213517380.562213</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09418038596949259</v>
+        <v>0.1026691137976065</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04435998264829769</v>
+        <v>0.0327167102088738</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2681288561.3413</v>
+        <v>3170115831.333284</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1354138942894089</v>
+        <v>0.1223848662968961</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03771268101307901</v>
+        <v>0.04770153170334348</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2732185609.841735</v>
+        <v>2138178913.926101</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1350002449685068</v>
+        <v>0.1297111331295795</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01983998244630842</v>
+        <v>0.02667943752029977</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1364082550.11615</v>
+        <v>1243853215.277552</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1199376093499023</v>
+        <v>0.188412076473718</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04426636585254181</v>
+        <v>0.03558052795300553</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3385629887.014596</v>
+        <v>2351960630.149325</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1459568029633593</v>
+        <v>0.1738422803723042</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02862613861197277</v>
+        <v>0.03534772966456524</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3381001334.211156</v>
+        <v>3416810527.134594</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1513390763103479</v>
+        <v>0.1083547212499966</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02545708366721598</v>
+        <v>0.03889923881509937</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2110045104.218657</v>
+        <v>1970670386.055684</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1181624237536824</v>
+        <v>0.1117040736234195</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04876516799471313</v>
+        <v>0.03602486325124246</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2022893919.863267</v>
+        <v>2042159721.345702</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1904027208334245</v>
+        <v>0.1893063666183186</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04523006883044844</v>
+        <v>0.04456975991978011</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2177400747.829158</v>
+        <v>2703922247.932556</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0771756669221187</v>
+        <v>0.1078872076010139</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03080100351840901</v>
+        <v>0.03600807613374487</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4491205642.593019</v>
+        <v>3988431034.103478</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1414098116538345</v>
+        <v>0.1028302131385659</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04167802006617319</v>
+        <v>0.03813974343180508</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1763769480.19331</v>
+        <v>2088284095.00601</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1443548478223072</v>
+        <v>0.1365069636841678</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03457052296460629</v>
+        <v>0.027779817156962</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2594670397.108799</v>
+        <v>2562142814.397558</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09351241395364189</v>
+        <v>0.09539254258168704</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03471806353725376</v>
+        <v>0.04035250058463392</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1839619649.646921</v>
+        <v>1501406105.343373</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1164836184015428</v>
+        <v>0.1131910192338666</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03946021555452019</v>
+        <v>0.04327447349052828</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4097868353.295608</v>
+        <v>5053249828.411716</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1410302068928158</v>
+        <v>0.1483115701299907</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02335013662736731</v>
+        <v>0.02829442295995193</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2772643223.023793</v>
+        <v>2627945960.830902</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08614703946839967</v>
+        <v>0.1110020755021713</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01998143306466232</v>
+        <v>0.02289978991667186</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3163307461.657341</v>
+        <v>2241166352.72433</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1315382340948152</v>
+        <v>0.1407282529428336</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02782127018039166</v>
+        <v>0.02905050736086307</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4539062639.833711</v>
+        <v>3901936837.741296</v>
       </c>
       <c r="F100" t="n">
-        <v>0.155583028598981</v>
+        <v>0.1176665426377398</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02352132038029529</v>
+        <v>0.02060146810182321</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2378440471.475832</v>
+        <v>2804158527.943898</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1411002995116605</v>
+        <v>0.1976653445887415</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03959210977491538</v>
+        <v>0.05824305099269234</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_357.xlsx
+++ b/output/fit_clients/fit_round_357.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1746613655.542626</v>
+        <v>1646327400.397001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0964870451407279</v>
+        <v>0.1110968797989823</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03697008224620091</v>
+        <v>0.03586121885637403</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1947453760.416829</v>
+        <v>2119294133.97638</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1357924469068788</v>
+        <v>0.1222123842086296</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05028393246954654</v>
+        <v>0.03859778142589664</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4125956422.91011</v>
+        <v>4656362256.282357</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1249973926861754</v>
+        <v>0.1276254580491299</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03093119867141672</v>
+        <v>0.02747160602088653</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>184</v>
+      </c>
+      <c r="J4" t="n">
+        <v>357</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4225075054.617146</v>
+        <v>3699260008.882093</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09819041401638445</v>
+        <v>0.09266808130715624</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04565398389406412</v>
+        <v>0.04957722671698619</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>142</v>
+      </c>
+      <c r="J5" t="n">
+        <v>357</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2463751183.489649</v>
+        <v>2410416488.168684</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1034833951821051</v>
+        <v>0.09412691007844637</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04079445418897404</v>
+        <v>0.05447446853319469</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2013256822.742709</v>
+        <v>2175311200.653039</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09254478808847216</v>
+        <v>0.06901449173411693</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03207082011544213</v>
+        <v>0.04154639059860948</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3667437978.609419</v>
+        <v>3099783444.141745</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1523041967450404</v>
+        <v>0.1731001642526535</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02685297706554672</v>
+        <v>0.0246597971340136</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>354</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1829309945.875913</v>
+        <v>1391400735.002277</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1894520407838834</v>
+        <v>0.1952676247200424</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03617604461011196</v>
+        <v>0.02407906971855534</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +781,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4201547777.030945</v>
+        <v>4854587161.17968</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2123352296749599</v>
+        <v>0.1442239173808622</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04102927514597048</v>
+        <v>0.04535362607602941</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>299</v>
+      </c>
+      <c r="J10" t="n">
+        <v>357</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,17 +816,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2861801510.231393</v>
+        <v>4168846055.827909</v>
       </c>
       <c r="F11" t="n">
-        <v>0.120179535839654</v>
+        <v>0.1798721210693564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04767534384384824</v>
+        <v>0.04543294193181514</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>147</v>
+      </c>
+      <c r="J11" t="n">
+        <v>357</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +851,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2957966293.284969</v>
+        <v>3036635878.620956</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1795084949259387</v>
+        <v>0.1215533260215923</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05282414303408927</v>
+        <v>0.04327927549963764</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +886,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3610944671.493536</v>
+        <v>4378221874.350001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07638868103291581</v>
+        <v>0.09315608427977225</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03124349698617968</v>
+        <v>0.02062253981414243</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>184</v>
+      </c>
+      <c r="J13" t="n">
+        <v>357</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +915,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3651554163.257342</v>
+        <v>2781860984.946758</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1631897775004992</v>
+        <v>0.1541165353595992</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03788911433099176</v>
+        <v>0.03373264021957476</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>74</v>
+      </c>
+      <c r="J14" t="n">
+        <v>355</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +950,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1590277637.111837</v>
+        <v>1762502790.845819</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09371971207742837</v>
+        <v>0.0709650876397204</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04887799284539867</v>
+        <v>0.03879149794330334</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +985,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1844937548.358802</v>
+        <v>2349053419.201796</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0704488132331455</v>
+        <v>0.07741310844155887</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0412634707361064</v>
+        <v>0.0492020947812931</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1020,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3748796299.740819</v>
+        <v>4310480600.894019</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1344193413887893</v>
+        <v>0.1234243777659551</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0439810900675277</v>
+        <v>0.03796035174750265</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>169</v>
+      </c>
+      <c r="J17" t="n">
+        <v>356</v>
+      </c>
+      <c r="K17" t="n">
+        <v>61.33555514089246</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1057,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2720042368.176819</v>
+        <v>2504768151.849616</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1564534364537107</v>
+        <v>0.1527673997537753</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03398847352929828</v>
+        <v>0.02651361609817898</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>356</v>
+      </c>
+      <c r="K18" t="n">
+        <v>31.4550585031196</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1210991389.333707</v>
+        <v>975943555.3948345</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1190346801709765</v>
+        <v>0.138405131665634</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0242083920720783</v>
+        <v>0.0190866193449712</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1813237070.907785</v>
+        <v>2127787359.310264</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1330061006302589</v>
+        <v>0.1331101587773909</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02869890863968502</v>
+        <v>0.02006568131713898</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2056358369.304343</v>
+        <v>2187427639.390359</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08469747391204077</v>
+        <v>0.07023954009320926</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02988347854081309</v>
+        <v>0.04218539242890242</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2514259038.693737</v>
+        <v>2671374284.631166</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1240491341199217</v>
+        <v>0.144700301128636</v>
       </c>
       <c r="G22" t="n">
-        <v>0.039409456203058</v>
+        <v>0.03492302015558287</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>97</v>
+      </c>
+      <c r="J22" t="n">
+        <v>355</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1240,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>965217554.1237186</v>
+        <v>1202633542.811461</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1445880909398931</v>
+        <v>0.1270096248560867</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03870981897593104</v>
+        <v>0.05152005508011752</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3259535379.411118</v>
+        <v>3638114072.527061</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1106733114630249</v>
+        <v>0.129923349151918</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03710371567717351</v>
+        <v>0.0237045747069687</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>108</v>
+      </c>
+      <c r="J24" t="n">
+        <v>356</v>
+      </c>
+      <c r="K24" t="n">
+        <v>54.7536014758899</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1274810947.857913</v>
+        <v>907191800.4753786</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09376242867253007</v>
+        <v>0.09576673520486212</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03058741011046235</v>
+        <v>0.02594900892778532</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1099483258.873662</v>
+        <v>1070756862.726741</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1247046288182063</v>
+        <v>0.1019738114072758</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02614731988310577</v>
+        <v>0.03595338623533619</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2877128596.737205</v>
+        <v>3698697692.554389</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1147859722248611</v>
+        <v>0.1540888208414618</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01720682660905549</v>
+        <v>0.01817102472950304</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>149</v>
+      </c>
+      <c r="J27" t="n">
+        <v>357</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3003650888.070197</v>
+        <v>3770170077.336927</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1017004542208471</v>
+        <v>0.1438631892180989</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0342305096545365</v>
+        <v>0.03449004987262753</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>83</v>
+      </c>
+      <c r="J28" t="n">
+        <v>357</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1446,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4591887990.643957</v>
+        <v>4513953001.779787</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09253358502661956</v>
+        <v>0.1397294437059733</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04117941135428938</v>
+        <v>0.03341176056144095</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>316</v>
+      </c>
+      <c r="J29" t="n">
+        <v>357</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1710620512.737386</v>
+        <v>1868379461.073088</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08468140720778775</v>
+        <v>0.08460718970380926</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03181660057027943</v>
+        <v>0.0381736680171218</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1033080734.135979</v>
+        <v>1166994761.222772</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07402920693159146</v>
+        <v>0.07019933320812601</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04115221161265855</v>
+        <v>0.03889445679339366</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1557,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1776528392.334358</v>
+        <v>1759340915.042825</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09368413597204517</v>
+        <v>0.1071682394989275</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03389805889524626</v>
+        <v>0.02621567288388011</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2766705658.556016</v>
+        <v>2511979341.150695</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1538773249768926</v>
+        <v>0.1332057864294059</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0427732689937806</v>
+        <v>0.05767707472696939</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1389559191.483743</v>
+        <v>1121102538.120999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08946998746280534</v>
+        <v>0.1132349973285027</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01905853296036145</v>
+        <v>0.02525850675770124</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1662,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1285368572.654896</v>
+        <v>1262917501.892682</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07628231896084121</v>
+        <v>0.09997538899328849</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03912361211303721</v>
+        <v>0.03088497720452313</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2542959570.219952</v>
+        <v>2784930131.651943</v>
       </c>
       <c r="F36" t="n">
-        <v>0.166287653435687</v>
+        <v>0.1641926676771236</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02334765313485923</v>
+        <v>0.02727395010159935</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1732,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1776419187.455949</v>
+        <v>2913582218.607789</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08269580436531232</v>
+        <v>0.08748050729294338</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03968137080088858</v>
+        <v>0.02791980963218443</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2019412451.546297</v>
+        <v>1930184460.305933</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09117815171353384</v>
+        <v>0.1108046085127157</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02916993808956822</v>
+        <v>0.03295724390070873</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1925194479.752818</v>
+        <v>1937882959.255339</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1858387178968298</v>
+        <v>0.1605088874882206</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03279687525783822</v>
+        <v>0.02230680047675986</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1555022727.319075</v>
+        <v>1792826984.253411</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1392464585857371</v>
+        <v>0.1362665228178789</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04160652645020943</v>
+        <v>0.05121561779548472</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2383990302.358088</v>
+        <v>2632073240.696486</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1078351694213217</v>
+        <v>0.1194540377163546</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03671276964540469</v>
+        <v>0.03740585792263961</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1901,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3526121561.76087</v>
+        <v>2652806851.434489</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1098250499745706</v>
+        <v>0.09482437093961493</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03137905260451673</v>
+        <v>0.03113821959782376</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>156</v>
+      </c>
+      <c r="J42" t="n">
+        <v>356</v>
+      </c>
+      <c r="K42" t="n">
+        <v>31.36851302258952</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2315721095.292035</v>
+        <v>2383032494.446397</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2041072924033707</v>
+        <v>0.1501446460929636</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02173798661131874</v>
+        <v>0.01959556263069752</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1503590162.787283</v>
+        <v>1856905262.946597</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07061480767152216</v>
+        <v>0.1002109465594043</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02445189564453282</v>
+        <v>0.02740314591936641</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2434115249.06636</v>
+        <v>1563559437.249066</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1619001686404037</v>
+        <v>0.1915242434273758</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03744340766032801</v>
+        <v>0.04752727196352498</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2049,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4788861120.393801</v>
+        <v>5623260326.084959</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1616769628416404</v>
+        <v>0.1074849300829423</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04915107477301003</v>
+        <v>0.04450500039929555</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>214</v>
+      </c>
+      <c r="J46" t="n">
+        <v>357</v>
+      </c>
+      <c r="K46" t="n">
+        <v>62.41341563271457</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3858420090.913754</v>
+        <v>3868811886.891555</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2018809859642425</v>
+        <v>0.1476417337275596</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05835229536930781</v>
+        <v>0.04302351681784015</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>159</v>
+      </c>
+      <c r="J47" t="n">
+        <v>357</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3262941233.091258</v>
+        <v>4296581771.41781</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09724067797817873</v>
+        <v>0.08756086172530139</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0266098840234153</v>
+        <v>0.02813930530535188</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>181</v>
+      </c>
+      <c r="J48" t="n">
+        <v>357</v>
+      </c>
+      <c r="K48" t="n">
+        <v>64.92850074351765</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1248364168.218474</v>
+        <v>1639981920.687358</v>
       </c>
       <c r="F49" t="n">
-        <v>0.158285864721591</v>
+        <v>0.1780392434088646</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03398072461464029</v>
+        <v>0.04336396390947981</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3318702187.777586</v>
+        <v>2990392187.063498</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1541233388011965</v>
+        <v>0.1545634157553655</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04146223086707078</v>
+        <v>0.04823764649253835</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>118</v>
+      </c>
+      <c r="J50" t="n">
+        <v>356</v>
+      </c>
+      <c r="K50" t="n">
+        <v>41.1641025562196</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1243179864.653901</v>
+        <v>988162779.9401046</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1575024290065678</v>
+        <v>0.1820977969043424</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0379478021710597</v>
+        <v>0.05248507124538845</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2265,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4268545153.881006</v>
+        <v>3594284243.570956</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1089738156623854</v>
+        <v>0.1291786516659968</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05478853698617581</v>
+        <v>0.04205604194829318</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>212</v>
+      </c>
+      <c r="J52" t="n">
+        <v>355</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3255105008.852811</v>
+        <v>3624783635.337296</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1783154283538428</v>
+        <v>0.1617173468676532</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02702727335110986</v>
+        <v>0.02857055821759701</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4611554917.268315</v>
+        <v>3207830052.229858</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1417082609666157</v>
+        <v>0.1050458884728385</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04047678844862766</v>
+        <v>0.0324810586518014</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>189</v>
+      </c>
+      <c r="J54" t="n">
+        <v>356</v>
+      </c>
+      <c r="K54" t="n">
+        <v>41.388292401762</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4282756533.450991</v>
+        <v>4832411587.476665</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1668367741218259</v>
+        <v>0.2215119043976026</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02109269871187133</v>
+        <v>0.02604703331423748</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>171</v>
+      </c>
+      <c r="J55" t="n">
+        <v>357</v>
+      </c>
+      <c r="K55" t="n">
+        <v>64.17884199598228</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1839282607.626023</v>
+        <v>1771063061.010099</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1112110336989347</v>
+        <v>0.1345990835702197</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05516917298870269</v>
+        <v>0.05355097026145887</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3786812504.667868</v>
+        <v>2914287696.912074</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1306702738008093</v>
+        <v>0.145608327113772</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02558873298156391</v>
+        <v>0.02371626416414289</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>148</v>
+      </c>
+      <c r="J57" t="n">
+        <v>356</v>
+      </c>
+      <c r="K57" t="n">
+        <v>35.76295541956174</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1853100499.922241</v>
+        <v>1321458307.426709</v>
       </c>
       <c r="F58" t="n">
-        <v>0.181196441054486</v>
+        <v>0.1979611714429324</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02556223626367532</v>
+        <v>0.02628906393041658</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5245630880.770029</v>
+        <v>3952244773.417793</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07868105490440171</v>
+        <v>0.1258411919218886</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03804120287449794</v>
+        <v>0.04276883784165734</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>173</v>
+      </c>
+      <c r="J59" t="n">
+        <v>356</v>
+      </c>
+      <c r="K59" t="n">
+        <v>61.53706979646899</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3747828921.005753</v>
+        <v>3039547072.182055</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1826895595067602</v>
+        <v>0.1494777204540759</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03245077176218802</v>
+        <v>0.0285798576200067</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>63</v>
+      </c>
+      <c r="J60" t="n">
+        <v>354</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3334611701.07704</v>
+        <v>2658720331.149663</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1344273330548139</v>
+        <v>0.1124621072290227</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0267462154982284</v>
+        <v>0.02615292530301029</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2071553036.923837</v>
+        <v>1416968916.465842</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1275869502094831</v>
+        <v>0.1555271780226235</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03740054993383125</v>
+        <v>0.0432909444356082</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4416489777.11146</v>
+        <v>5503913568.838103</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06828046436665595</v>
+        <v>0.07449277836699357</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03138426428252991</v>
+        <v>0.03633662428677951</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>175</v>
+      </c>
+      <c r="J63" t="n">
+        <v>357</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4651358073.559114</v>
+        <v>4921847019.786827</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1248581953368138</v>
+        <v>0.1689416317383912</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03409091811156421</v>
+        <v>0.02582804877226348</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>177</v>
+      </c>
+      <c r="J64" t="n">
+        <v>356</v>
+      </c>
+      <c r="K64" t="n">
+        <v>60.32059645636706</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3895110639.407129</v>
+        <v>5101106357.171207</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1130637775036869</v>
+        <v>0.107765922601353</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02432412676614777</v>
+        <v>0.02484523432479431</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>273</v>
+      </c>
+      <c r="J65" t="n">
+        <v>357</v>
+      </c>
+      <c r="K65" t="n">
+        <v>61.79993768622472</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4223471992.581473</v>
+        <v>4490456230.548015</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1306226097509475</v>
+        <v>0.1462646488692317</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04962701206619703</v>
+        <v>0.04839098909453174</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>176</v>
+      </c>
+      <c r="J66" t="n">
+        <v>357</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2899472748.838938</v>
+        <v>2249290346.089518</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08205867044390003</v>
+        <v>0.09711416389627468</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03971131282236928</v>
+        <v>0.04370578382133972</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6081220743.322167</v>
+        <v>4117680515.95585</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1109492620236128</v>
+        <v>0.1436906438359189</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03327986257925793</v>
+        <v>0.04034528312132291</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>194</v>
+      </c>
+      <c r="J68" t="n">
+        <v>356</v>
+      </c>
+      <c r="K68" t="n">
+        <v>61.50635872335955</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2314344531.257843</v>
+        <v>2274295370.630567</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1406693704798798</v>
+        <v>0.1684001756510957</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04687743795536568</v>
+        <v>0.04396769787611771</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3683757661.510719</v>
+        <v>2455433612.760077</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09829665870785974</v>
+        <v>0.09793337670772502</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03906448561037388</v>
+        <v>0.03198973321356613</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>51</v>
+      </c>
+      <c r="J70" t="n">
+        <v>350</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3569272045.554225</v>
+        <v>3954388881.056744</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1839672819665736</v>
+        <v>0.13673868163858</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02940831976064814</v>
+        <v>0.03347657876919292</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>259</v>
+      </c>
+      <c r="J71" t="n">
+        <v>357</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2169092704.431903</v>
+        <v>2248109651.721525</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09946652503138817</v>
+        <v>0.09370219155207768</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03235996960713142</v>
+        <v>0.04101716428486402</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3171220123.378461</v>
+        <v>2391989639.321681</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09870541250385152</v>
+        <v>0.09771925743948869</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03692582520193943</v>
+        <v>0.04070609147029271</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3245279890.376187</v>
+        <v>3705082579.433676</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1359436660661755</v>
+        <v>0.1203266812700578</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02536657832390933</v>
+        <v>0.03039299190552454</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>98</v>
+      </c>
+      <c r="J74" t="n">
+        <v>357</v>
+      </c>
+      <c r="K74" t="n">
+        <v>68.41927956670895</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2263086645.003937</v>
+        <v>2039866850.132138</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1221589983737535</v>
+        <v>0.1375555138481673</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03764758591456256</v>
+        <v>0.03797236394306086</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4005274360.054132</v>
+        <v>5102023809.191243</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09981940370185816</v>
+        <v>0.113334407325363</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03275620098236404</v>
+        <v>0.02487297709804571</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>169</v>
+      </c>
+      <c r="J76" t="n">
+        <v>356</v>
+      </c>
+      <c r="K76" t="n">
+        <v>59.38914387767951</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1755318220.191964</v>
+        <v>1849065422.434994</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1386688204332982</v>
+        <v>0.1260830463232442</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0266859667857414</v>
+        <v>0.02001413703262385</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4003009080.323907</v>
+        <v>3662681577.666172</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1244653400120615</v>
+        <v>0.1299418968705154</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03505100287075524</v>
+        <v>0.05426033152066413</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>178</v>
+      </c>
+      <c r="J78" t="n">
+        <v>356</v>
+      </c>
+      <c r="K78" t="n">
+        <v>52.76888771169742</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1831667675.904276</v>
+        <v>1752434134.44776</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1539140828602576</v>
+        <v>0.1724440762965458</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02859556509001614</v>
+        <v>0.03396494331202796</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3866177087.393443</v>
+        <v>4991876252.185881</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1101199704619239</v>
+        <v>0.08078243143609465</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02817006838301501</v>
+        <v>0.03187902371671215</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>174</v>
+      </c>
+      <c r="J80" t="n">
+        <v>357</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3431076156.305848</v>
+        <v>4651934274.356558</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1041863955365309</v>
+        <v>0.09194212058122431</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02299089490553841</v>
+        <v>0.02899555802319869</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>165</v>
+      </c>
+      <c r="J81" t="n">
+        <v>356</v>
+      </c>
+      <c r="K81" t="n">
+        <v>57.350025922015</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5168519669.750286</v>
+        <v>3969991435.618756</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1870531485870003</v>
+        <v>0.1322502179125757</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02127898211396602</v>
+        <v>0.0197167435723892</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>252</v>
+      </c>
+      <c r="J82" t="n">
+        <v>356</v>
+      </c>
+      <c r="K82" t="n">
+        <v>60.92509793267597</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2127188688.195902</v>
+        <v>1571843326.853692</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1174892753384725</v>
+        <v>0.1543111063882218</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0371035618179875</v>
+        <v>0.03222296536065536</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2213517380.562213</v>
+        <v>1684516050.993221</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1026691137976065</v>
+        <v>0.09361806165379082</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0327167102088738</v>
+        <v>0.03435975713355991</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3170115831.333284</v>
+        <v>3484729065.540464</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1223848662968961</v>
+        <v>0.1586509473954166</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04770153170334348</v>
+        <v>0.03529662053424412</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2138178913.926101</v>
+        <v>2512478644.080149</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1297111331295795</v>
+        <v>0.1731152871470675</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02667943752029977</v>
+        <v>0.02258713578254461</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1243853215.277552</v>
+        <v>1468334178.606054</v>
       </c>
       <c r="F87" t="n">
-        <v>0.188412076473718</v>
+        <v>0.1345047137747112</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03558052795300553</v>
+        <v>0.03242285793749652</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2351960630.149325</v>
+        <v>2391372242.533799</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1738422803723042</v>
+        <v>0.1240230813716096</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03534772966456524</v>
+        <v>0.03938059348881762</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3416810527.134594</v>
+        <v>3156303875.2788</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1083547212499966</v>
+        <v>0.1154740948047604</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03889923881509937</v>
+        <v>0.04078509223137677</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1970670386.055684</v>
+        <v>1972677571.423904</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1117040736234195</v>
+        <v>0.124957156029685</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03602486325124246</v>
+        <v>0.05212643069833041</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2042159721.345702</v>
+        <v>1422243326.951636</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1893063666183186</v>
+        <v>0.128042956557317</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04456975991978011</v>
+        <v>0.04710113068226986</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2703922247.932556</v>
+        <v>2478402558.658415</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1078872076010139</v>
+        <v>0.1084732648099462</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03600807613374487</v>
+        <v>0.03373540217861572</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3724,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3988431034.103478</v>
+        <v>3418956923.780415</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1028302131385659</v>
+        <v>0.103033576448258</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03813974343180508</v>
+        <v>0.04821415097443547</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>166</v>
+      </c>
+      <c r="J93" t="n">
+        <v>356</v>
+      </c>
+      <c r="K93" t="n">
+        <v>47.19901199068362</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2088284095.00601</v>
+        <v>2431011190.0052</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1365069636841678</v>
+        <v>0.1322093221695799</v>
       </c>
       <c r="G94" t="n">
-        <v>0.027779817156962</v>
+        <v>0.03290975012018572</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2562142814.397558</v>
+        <v>2316021148.849232</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09539254258168704</v>
+        <v>0.1303250140746677</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04035250058463392</v>
+        <v>0.04862087778795338</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1501406105.343373</v>
+        <v>1973423202.930122</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1131910192338666</v>
+        <v>0.09231416651033861</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04327447349052828</v>
+        <v>0.03387075112432163</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5053249828.411716</v>
+        <v>4704107472.670897</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1483115701299907</v>
+        <v>0.1326075171637623</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02829442295995193</v>
+        <v>0.02091129748108037</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>184</v>
+      </c>
+      <c r="J97" t="n">
+        <v>357</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2627945960.830902</v>
+        <v>3489578984.356583</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1110020755021713</v>
+        <v>0.115405821661531</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02289978991667186</v>
+        <v>0.02996192027311768</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>88</v>
+      </c>
+      <c r="J98" t="n">
+        <v>350</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2241166352.72433</v>
+        <v>2908625868.402146</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1407282529428336</v>
+        <v>0.09282327218547669</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02905050736086307</v>
+        <v>0.02173472434859887</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3901936837.741296</v>
+        <v>3043363048.340809</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1176665426377398</v>
+        <v>0.1248223814061328</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02060146810182321</v>
+        <v>0.02252205020282195</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>161</v>
+      </c>
+      <c r="J100" t="n">
+        <v>354</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2804158527.943898</v>
+        <v>3324202162.402098</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1976653445887415</v>
+        <v>0.1865637913326019</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05824305099269234</v>
+        <v>0.04730898863685747</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
